--- a/Texts/Город Сокровищ/Все персонажи/Понита.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Понита.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -55,6 +55,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïüóïíô, óàë éìé éîàœå, ÿ ñàä\nðïääåñçàóû îàšåãï ìéäåñà.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1304.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve heard…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They\'ve identified the thief who\nhas been stealing the Time Gears?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы тут узнали...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Стала известна личность того,\nкто крадёт Шестерни Времени?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú óôó ôèîàìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òóàìà éèâåòóîà ìéœîïòóû óïãï,\nëóï ëñàäæó Šåòóåñîé Âñåíåîé?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1308.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1312.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So, everyone is saying that\n[CS:N]Grovyle[CR] has appeared again!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1408.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все только и говорят о том,\nчто в округе снова появился [CS:N]Гровайл[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå óïìûëï é ãïâïñÿó ï óïí,\nœóï â ïëñôãå òîïâà ðïÿâéìòÿ [CS:N]Ãñïâàêì[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1505.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1607.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The planet\'s paralysis can\'t be\nallowed to happen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That [CS:N]Grovyle[CR] must be caught!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нельзя позволить ему парализовать\nпланету!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нужно поймать [CS:N]Гровайла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåìûèÿ ðïèâïìéóû åíô ðàñàìéèïâàóû\nðìàîåóô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îôçîï ðïêíàóû [CS:N]Ãñïâàêìà[CR]!</t>
   </si>
 </sst>
 </file>
@@ -85,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,11 +180,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -136,6 +208,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,17 +547,118 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6">
         <v>186</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>161</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>164</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4">
+        <v>142</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4">
+        <v>120</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>123</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Понита.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Понита.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Îôçîï ðïêíàóû [CS:N]Ãñïâàêìà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It isn\'t over yet! Good luck!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2406.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это ещё не конец! Удачи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï åþæ îå ëïîåø! Ôäàœé!</t>
   </si>
 </sst>
 </file>
@@ -496,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,18 +660,43 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
         <v>123</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4">
+        <v>101</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Texts/Город Сокровищ/Все персонажи/Понита.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Понита.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóï åþæ îå ëïîåø! Ôäàœé!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2506.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'ve stopped the planet\'s\nparalysis?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H-how incredible! Thank you!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы предотвратили планетарный\nпаралич?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В-вот это да! Спасибо вам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú ðñåäïóâñàóéìé ðìàîåóàñîúê\nðàñàìéœ?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â-âïó üóï äà! Òðàòéáï âàí!</t>
   </si>
 </sst>
 </file>
@@ -508,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,13 +715,46 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4">
+        <v>79</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>82</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Понита.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Понита.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -154,6 +154,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Â-âïó üóï äà! Òðàòéáï âàí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, Team [CS:X]Charm[CR] was here...?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0407.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, здесь была Команда [CS:X]Шарм[CR]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, èäåòû áúìà Ëïíàîäà [CS:X]Šàñí[CR]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team [CS:X]Raider[CR] is another team\nthat would be fantastic to meet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They must be incredibly cool\nin person…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Будет здорово встретиться с\nКомандой [CS:X]Рейдер[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должно быть, они невероятно\nкрутые ребята...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áôäåó èäïñïâï âòóñåóéóûòÿ ò\nËïíàîäïê [CS:X]Ñåêäåñ[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçîï áúóû, ïîé îåâåñïÿóîï\nëñôóúå ñåáÿóà...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2003.ssb</t>
   </si>
 </sst>
 </file>
@@ -184,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -225,11 +258,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -250,6 +294,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -532,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,17 +792,66 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
         <v>82</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="8">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Понита.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Понита.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/us2003.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Another great accomplishment\nfor Team [team:]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2207.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ещё одно великое свершение\nКоманды [team:]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åþæ ïäîï âåìéëïå òâåñšåîéå\nËïíàîäú [team:]!</t>
   </si>
 </sst>
 </file>
@@ -582,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,18 +852,36 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="4">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
